--- a/dist/ID.xlsx
+++ b/dist/ID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Makegame\01.Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Makegame\01.Login\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F446F71-9810-439A-B29C-4123C0BE725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376666C2-FBD9-47C0-B224-277CE36D6846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E3004C87-E0ED-4FC5-9B17-3418D2F441F6}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{E3004C87-E0ED-4FC5-9B17-3418D2F441F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +459,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -471,7 +473,7 @@
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -516,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>12345680</v>
+        <v>3333</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
